--- a/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.02396472793488663</v>
+        <v>0.02396012198040794</v>
       </c>
       <c r="C2">
-        <v>0.07366542223218585</v>
+        <v>0.06400600273917857</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.008677345372069609</v>
+        <v>-0.00867595726186674</v>
       </c>
       <c r="C3">
-        <v>-0.004937943074505181</v>
+        <v>-0.004227289390106689</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.00185603140969123</v>
+        <v>-0.001855355037936101</v>
       </c>
       <c r="C4">
-        <v>0.01329971324316737</v>
+        <v>0.02083425605938381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.05225020444834329</v>
+        <v>-0.05225237839036743</v>
       </c>
       <c r="C5">
-        <v>-0.1886969696958416</v>
+        <v>-0.1926333790171958</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.01537699973478199</v>
+        <v>0.01537435785120165</v>
       </c>
       <c r="C6">
-        <v>0.1562273761548436</v>
+        <v>0.1498228947578887</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.3466344081743964</v>
+        <v>0.3466354321183701</v>
       </c>
       <c r="C7">
-        <v>0.260610721087442</v>
+        <v>0.2625994485723737</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.2783574108487201</v>
+        <v>0.2783585600795661</v>
       </c>
       <c r="C8">
-        <v>0.257934420132331</v>
+        <v>0.2604906281470772</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.422501017037608</v>
+        <v>0.4224983809048624</v>
       </c>
       <c r="C9">
-        <v>-0.1151489858546482</v>
+        <v>-0.1219803733980831</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.7061974415531086</v>
+        <v>0.7061990224518602</v>
       </c>
       <c r="C10">
-        <v>-0.04601166233569852</v>
+        <v>-0.04217937618053209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.01123484495730263</v>
+        <v>-0.01123451454584329</v>
       </c>
       <c r="C11">
-        <v>0.05077408587573978</v>
+        <v>0.05215021348341572</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.004851880050310756</v>
+        <v>0.004850931296653562</v>
       </c>
       <c r="C12">
-        <v>0.3276993392867826</v>
+        <v>0.3244709696851096</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.0458215338111635</v>
+        <v>0.04581859851258315</v>
       </c>
       <c r="C13">
-        <v>-0.02409555272412743</v>
+        <v>-0.02632104953641389</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.2127823301438341</v>
+        <v>0.2127827154473627</v>
       </c>
       <c r="C14">
-        <v>0.08310011850517784</v>
+        <v>0.08353076346980363</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.1394898533482321</v>
+        <v>-0.1394899147064791</v>
       </c>
       <c r="C15">
-        <v>0.7223509986926785</v>
+        <v>0.7229484033680846</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.2091434301027275</v>
+        <v>0.2091408775902421</v>
       </c>
       <c r="C16">
-        <v>0.1225463124737639</v>
+        <v>0.1179366161259491</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.1039044209331501</v>
+        <v>-0.1039040292969665</v>
       </c>
       <c r="C17">
-        <v>0.3609355500587557</v>
+        <v>0.3608184411995917</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.02396012198040794</v>
+        <v>0.02396129144869847</v>
       </c>
       <c r="C2">
-        <v>0.06400600273917857</v>
+        <v>0.06728711501333301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.00867595726186674</v>
+        <v>-0.008676835302051787</v>
       </c>
       <c r="C3">
-        <v>-0.004227289390106689</v>
+        <v>-0.006906046868349807</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.001855355037936101</v>
+        <v>-0.001855194520689455</v>
       </c>
       <c r="C4">
-        <v>0.02083425605938381</v>
+        <v>0.01796691137242105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.05225237839036743</v>
+        <v>-0.05225216860447655</v>
       </c>
       <c r="C5">
-        <v>-0.1926333790171958</v>
+        <v>-0.1900977051153141</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.01537435785120165</v>
+        <v>0.01537576344443783</v>
       </c>
       <c r="C6">
-        <v>0.1498228947578887</v>
+        <v>0.152982722627111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.3466354321183701</v>
+        <v>0.3466352755508043</v>
       </c>
       <c r="C7">
-        <v>0.2625994485723737</v>
+        <v>0.2598013289657624</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.2783585600795661</v>
+        <v>0.2783578671655686</v>
       </c>
       <c r="C8">
-        <v>0.2604906281470772</v>
+        <v>0.2592762870654981</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.4224983809048624</v>
+        <v>0.4224994979529085</v>
       </c>
       <c r="C9">
-        <v>-0.1219803733980831</v>
+        <v>-0.1188842114633974</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.7061990224518602</v>
+        <v>0.7061988255900314</v>
       </c>
       <c r="C10">
-        <v>-0.04217937618053209</v>
+        <v>-0.04174429873171956</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.01123451454584329</v>
+        <v>-0.01123520215096985</v>
       </c>
       <c r="C11">
-        <v>0.05215021348341572</v>
+        <v>0.05136079498615741</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.004850931296653562</v>
+        <v>0.004850900902480667</v>
       </c>
       <c r="C12">
-        <v>0.3244709696851096</v>
+        <v>0.3258147391033321</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.04581859851258315</v>
+        <v>0.04582019631768507</v>
       </c>
       <c r="C13">
-        <v>-0.02632104953641389</v>
+        <v>-0.0233986518954146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.2127827154473627</v>
+        <v>0.2127822284976965</v>
       </c>
       <c r="C14">
-        <v>0.08353076346980363</v>
+        <v>0.08427711274291196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.1394899147064791</v>
+        <v>-0.139489626060153</v>
       </c>
       <c r="C15">
-        <v>0.7229484033680846</v>
+        <v>0.7249771887312708</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.2091408775902421</v>
+        <v>0.2091406664771301</v>
       </c>
       <c r="C16">
-        <v>0.1179366161259491</v>
+        <v>0.1157765297039988</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.1039040292969665</v>
+        <v>-0.1039037932413979</v>
       </c>
       <c r="C17">
-        <v>0.3608184411995917</v>
+        <v>0.3598953888867547</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
+++ b/Depth Damaged States Second Crack Pipe 4/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.02396129144869847</v>
+        <v>0.0239616380717946</v>
       </c>
       <c r="C2">
-        <v>0.06728711501333301</v>
+        <v>0.06344570286477988</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.008676835302051787</v>
+        <v>-0.008678078645303806</v>
       </c>
       <c r="C3">
-        <v>-0.006906046868349807</v>
+        <v>-0.007630201523759542</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.001855194520689455</v>
+        <v>-0.001854580733088329</v>
       </c>
       <c r="C4">
-        <v>0.01796691137242105</v>
+        <v>0.02057698068935901</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.05225216860447655</v>
+        <v>-0.05225139074879027</v>
       </c>
       <c r="C5">
-        <v>-0.1900977051153141</v>
+        <v>-0.1902565838498182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.01537576344443783</v>
+        <v>0.01537564809319974</v>
       </c>
       <c r="C6">
-        <v>0.152982722627111</v>
+        <v>0.1530303873050321</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.3466352755508043</v>
+        <v>0.3466348215901034</v>
       </c>
       <c r="C7">
-        <v>0.2598013289657624</v>
+        <v>0.261629465054335</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.2783578671655686</v>
+        <v>0.278357800202353</v>
       </c>
       <c r="C8">
-        <v>0.2592762870654981</v>
+        <v>0.2585824801839264</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>0.4224994979529085</v>
+        <v>0.4225003425708806</v>
       </c>
       <c r="C9">
-        <v>-0.1188842114633974</v>
+        <v>-0.1239312759104667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.7061988255900314</v>
+        <v>0.7061988505389594</v>
       </c>
       <c r="C10">
-        <v>-0.04174429873171956</v>
+        <v>-0.03952148328333436</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.01123520215096985</v>
+        <v>-0.01123539325197448</v>
       </c>
       <c r="C11">
-        <v>0.05136079498615741</v>
+        <v>0.05157341663780133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.004850900902480667</v>
+        <v>0.00484950103050021</v>
       </c>
       <c r="C12">
-        <v>0.3258147391033321</v>
+        <v>0.3289914647728868</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>0.04582019631768507</v>
+        <v>0.04582151089640971</v>
       </c>
       <c r="C13">
-        <v>-0.0233986518954146</v>
+        <v>-0.0269968212924624</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.2127822284976965</v>
+        <v>0.212782049431686</v>
       </c>
       <c r="C14">
-        <v>0.08427711274291196</v>
+        <v>0.08714304692436992</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.139489626060153</v>
+        <v>-0.139487960292954</v>
       </c>
       <c r="C15">
-        <v>0.7249771887312708</v>
+        <v>0.7222264592375381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.2091406664771301</v>
+        <v>0.2091404642647843</v>
       </c>
       <c r="C16">
-        <v>0.1157765297039988</v>
+        <v>0.1130721382794221</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.1039037932413979</v>
+        <v>-0.1039045934638865</v>
       </c>
       <c r="C17">
-        <v>0.3598953888867547</v>
+        <v>0.360592639479706</v>
       </c>
     </row>
   </sheetData>
